--- a/External_Data/POS Company Owned/POS Company Owned Stores.xlsx
+++ b/External_Data/POS Company Owned/POS Company Owned Stores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genparts-my.sharepoint.com/personal/418953_genpt_net/Documents/Desktop/GitHub QLik Repo/Qlik-Repository/External_Data/POS Company Owned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CBD207-3484-4D13-9B82-16552DEF648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{65CBD207-3484-4D13-9B82-16552DEF648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA25BBC9-5A92-40DA-801F-AB3E907D39AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB73C528-5F39-4027-9E4D-9974605CDCC4}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
   </si>
 </sst>
 </file>
@@ -388,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EAA1F-E406-4A85-8E25-D29ECAEAD9DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -399,6 +404,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/External_Data/POS Company Owned/POS Company Owned Stores.xlsx
+++ b/External_Data/POS Company Owned/POS Company Owned Stores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genparts-my.sharepoint.com/personal/418953_genpt_net/Documents/Desktop/GitHub QLik Repo/Qlik-Repository/External_Data/POS Company Owned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{65CBD207-3484-4D13-9B82-16552DEF648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA25BBC9-5A92-40DA-801F-AB3E907D39AE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{65CBD207-3484-4D13-9B82-16552DEF648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13108D0C-F0C2-44C4-931E-D1ADA9BDC153}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB73C528-5F39-4027-9E4D-9974605CDCC4}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>V1</t>
   </si>
   <si>
     <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EAA1F-E406-4A85-8E25-D29ECAEAD9DE}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +412,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
